--- a/Python/data/data_sheet.xlsx
+++ b/Python/data/data_sheet.xlsx
@@ -454,7 +454,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:J41"/>
+  <dimension ref="A1:J42"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="K1" activeCellId="0" sqref="K1"/>
@@ -801,32 +801,57 @@
       </c>
     </row>
     <row r="41" ht="14.65" customHeight="1" s="3">
-      <c r="A41" t="inlineStr">
+      <c r="A41" s="0" t="inlineStr">
         <is>
           <t>Wed, Mar 20, 2024</t>
         </is>
       </c>
-      <c r="B41" t="inlineStr">
+      <c r="B41" s="0" t="inlineStr">
         <is>
           <t>09 : 03 : 45 : 733430</t>
         </is>
       </c>
-      <c r="C41" t="inlineStr">
+      <c r="C41" s="0" t="inlineStr">
         <is>
           <t>Testing</t>
         </is>
       </c>
-      <c r="D41" t="n">
+      <c r="D41" s="0" t="n">
         <v>3</v>
       </c>
-      <c r="E41" t="n">
+      <c r="E41" s="0" t="n">
         <v>9</v>
       </c>
-      <c r="F41" t="n">
+      <c r="F41" s="0" t="n">
         <v>7</v>
       </c>
     </row>
-    <row r="42" ht="14.65" customHeight="1" s="3"/>
+    <row r="42" ht="14.65" customHeight="1" s="3">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>Thu, Mar 21, 2024</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>01 : 03 : 27 : 164844</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>Boxxx malakass</t>
+        </is>
+      </c>
+      <c r="D42" t="n">
+        <v>3.0390625</v>
+      </c>
+      <c r="E42" t="n">
+        <v>3.0390625</v>
+      </c>
+      <c r="F42" t="n">
+        <v>3.0390625</v>
+      </c>
+    </row>
     <row r="43" ht="14.65" customHeight="1" s="3"/>
     <row r="44" ht="14.65" customHeight="1" s="3"/>
     <row r="45" ht="14.65" customHeight="1" s="3"/>
